--- a/VR Karting/Results/8399.xlsx
+++ b/VR Karting/Results/8399.xlsx
@@ -3,23 +3,29 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2300" yWindow="980" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6260" yWindow="760" windowWidth="20920" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Word Accuracies" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Word Accuracies" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -36,6 +42,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -47,12 +60,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -67,11 +95,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -451,10 +482,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -473,6 +504,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -488,6 +524,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -503,6 +544,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -518,6 +564,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -533,6 +584,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -548,6 +604,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -563,6 +624,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -578,6 +644,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -593,6 +664,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -608,6 +684,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -623,6 +704,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -638,6 +724,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -653,6 +744,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -668,6 +764,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -683,6 +784,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -698,6 +804,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -713,6 +824,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -728,6 +844,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -743,6 +864,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -758,6 +884,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -773,6 +904,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -788,6 +924,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -803,6 +944,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -818,6 +964,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -833,6 +984,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -848,6 +1004,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -863,6 +1024,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -878,6 +1044,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -893,6 +1064,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -908,6 +1084,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -923,6 +1104,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -938,6 +1124,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -953,6 +1144,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -968,6 +1164,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -983,6 +1184,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -998,6 +1204,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -1013,6 +1224,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -1028,6 +1244,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -1043,6 +1264,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -1058,6 +1284,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -1073,6 +1304,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -1088,6 +1324,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -1103,6 +1344,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -1118,6 +1364,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -1133,6 +1384,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -1148,6 +1404,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -1163,6 +1424,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -1178,6 +1444,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -1193,6 +1464,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -1208,6 +1484,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -1223,6 +1504,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -1238,6 +1524,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -1253,6 +1544,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -1268,6 +1564,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -1283,6 +1584,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -1298,6 +1604,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -1313,6 +1624,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -1328,6 +1644,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -1343,6 +1664,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -1358,6 +1684,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -1373,6 +1704,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -1388,6 +1724,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -1403,6 +1744,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -1418,6 +1764,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -1433,6 +1784,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -1448,6 +1804,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -1463,6 +1824,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
@@ -1478,6 +1844,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -1493,6 +1864,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -1508,6 +1884,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -1523,6 +1904,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -1538,6 +1924,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -1553,6 +1944,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -1568,6 +1964,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -1583,6 +1984,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -1598,6 +2004,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -1613,6 +2024,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -1628,6 +2044,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -1643,6 +2064,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -1658,6 +2084,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
@@ -1673,6 +2104,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
@@ -1688,6 +2124,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -1703,6 +2144,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -1718,6 +2164,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -1733,6 +2184,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -1748,6 +2204,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -1763,6 +2224,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -1778,6 +2244,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -1793,6 +2264,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -1808,6 +2284,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -1823,6 +2304,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -1838,6 +2324,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -1853,6 +2344,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -1868,6 +2364,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -1883,6 +2384,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
@@ -1898,6 +2404,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
@@ -1913,6 +2424,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -1928,6 +2444,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -1943,6 +2464,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -1958,6 +2484,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
@@ -1973,6 +2504,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -1988,6 +2524,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -2003,6 +2544,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
@@ -2018,6 +2564,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -2033,6 +2584,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -2048,6 +2604,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -2063,6 +2624,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
@@ -2078,6 +2644,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -2093,6 +2664,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -2108,6 +2684,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -2123,6 +2704,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
@@ -2138,6 +2724,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
@@ -2153,6 +2744,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
@@ -2168,6 +2764,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
@@ -2183,6 +2784,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
@@ -2198,6 +2804,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
@@ -2213,6 +2824,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
@@ -2228,6 +2844,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
@@ -2243,6 +2864,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
@@ -2258,6 +2884,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
@@ -2273,6 +2904,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
@@ -2288,6 +2924,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
@@ -2303,6 +2944,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="inlineStr">
@@ -2318,6 +2964,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -2333,6 +2984,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
@@ -2348,6 +3004,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
@@ -2363,6 +3024,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
@@ -2378,6 +3044,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
@@ -2393,6 +3064,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
@@ -2408,6 +3084,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
@@ -2423,6 +3104,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="inlineStr">
@@ -2438,6 +3124,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
@@ -2453,6 +3144,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
@@ -2468,6 +3164,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
@@ -2483,6 +3184,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -2498,6 +3204,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -2513,6 +3224,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
@@ -2528,6 +3244,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -2543,6 +3264,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
@@ -2558,6 +3284,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="inlineStr">
@@ -2573,6 +3304,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="inlineStr">
@@ -2588,6 +3324,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
@@ -2603,6 +3344,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -2618,9 +3364,1124 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4107,7 +5968,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4204,587 +6065,4637 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.814087</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.516602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.899292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.72229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.516357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.695068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.400757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.262939</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.195313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.500366</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.265991</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.68335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.676392</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.049316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.11731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.700317</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.684692</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.867188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.342773</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.165771</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.036377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.7940674</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.35144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.618042</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.221436</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.220459</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.887939</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3.378296</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.968506</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.639648</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.954956</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2.394653</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.419189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.270508</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.022583</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.578613</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.549072</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.626099</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.929199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.720215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.848022</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.53186</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.606812</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.1427</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.671265</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.317749</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.8862305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.293823</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.302246</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.163208</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.100586</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.779907</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.476563</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.44873</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.876465</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.69104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.738026</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.652164</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.92812</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.829994</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.108494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.381241</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.458313</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.369942</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.218864</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.803505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.137421</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3.218758</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.7584229</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.31208</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.878647</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.70874</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.570023</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.793961</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.725128</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.147568</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.594604</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.239929</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.367157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.714279</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.219833</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.156204</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.982513</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.304672</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.255142</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.00386</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.838715</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.40744</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.76651</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.97229</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.424805</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.079926</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.037201</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.8470154</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.342346</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.045593</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.083435</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.9737549</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.624451</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.562531</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9540405</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.988861</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.648102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.808868</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.6982727</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.834839</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5179138</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.7356873</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.6333313</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7647095</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.587799</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.376007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.801224</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.578384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.452515</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.600723</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.463165</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.164536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.535706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.095139</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.517838</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5617523</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.044495</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.087982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.134705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.921951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.073181</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.498108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.553497</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.591431</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.45993</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.8677368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.310791</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.259369</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.485962</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.445587</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.075989</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.383453</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.120117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.062073</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.748474</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2.223633</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.8296509</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.790222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.185455</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.200989</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.741028</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.624573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.49231</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.273682</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.193176</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2.18512</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.739441</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.634399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.972412</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.645691</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.008545</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.746124</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.092163</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.8834839</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2.121918</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.988464</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.524841</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.474091</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.300598</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.944336</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.9764404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.889465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.496861</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.836216</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.23748</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.6271553</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.289761</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.7884521</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.28331</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.490211</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.412758</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.256462</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.74292</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.466713</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.739388</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.668098</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.280655</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3.386002</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.496414</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.975708</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.055405</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.63887</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.234024</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.179611</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.861389</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.864944</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.412704</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.889542</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.740891</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.561646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.525299</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.741165</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.444275</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.41011</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.83786</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.132294</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.291077</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.641327</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.074829</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.468109</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.9520264000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.72403</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.427277</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.823273</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.814362</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>4.036011</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.463776</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.9519653</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.384735</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.302521</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.728912</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.39624</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6068726</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.1026</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.787659</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.413208</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.45105</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.919159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.741226</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.607376</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.494194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.878258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.7429581</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.398239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8349304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.028954</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.088165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.21962</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.766129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.24353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.458771</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.090988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.264938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.046188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.441071</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.093521</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.104004</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.9602051</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.735687</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.7759247</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.590118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.128555</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.003281</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.6938934</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.4653015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.274536</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.9294128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7583923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.487396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.82785</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.914856</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.365234</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.918945</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.966461</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.348816</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.042908</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.250092</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.96225</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.7321777</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.976074</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.164429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.163422</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.46637</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2.653442</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.9009399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.300781</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.498962</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.6179504</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.618042</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.057343</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.294556</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.830811</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.020325</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.800293</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7703323</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.243618</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.869251</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.138767</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.940689</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.121765</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.575836</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.8623885999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.714798</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.9368744</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>3.392845</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.7640533</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.18837</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.8722687</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.128143</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.330795</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.21019</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.4573669</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.951904</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.5374756000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.7813873</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.185257</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.535721</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.559433</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.509689</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.9416809</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3.806854</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.038696</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.872879</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.410828</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.264343</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.093079</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.8942566</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.377197</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.037476</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.5420227</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.371033</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.040588</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.142517</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.900604</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.222107</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.400665</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.8778686999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.906311</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.07135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.6149597</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.4372559</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.8331299</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.5937805</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.59967</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.4543762</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.312469</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.30484</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.012604</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.9055786</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.995392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/8399.xlsx
+++ b/VR Karting/Results/8399.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6260" yWindow="760" windowWidth="20920" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13640" yWindow="2020" windowWidth="20920" windowHeight="17440" tabRatio="600" firstSheet="1" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,12 @@
     <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Word Accuracies" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Contrast Accuracies" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -485,7 +490,7 @@
   <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3381,7 +3386,4480 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>3.609352</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.543427</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.577316</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.321671</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.870239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.158234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.949112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.363632</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.44957</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.119095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.1306</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.055801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3.246033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3.395859</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3.939911</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.870636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.848007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.209274</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.645584</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.857941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.539429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.596924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.715424</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3.05896</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.735504</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2.051086</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.116119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.3284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.113434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.675201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.232941</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.327057</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.109467</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3.04718</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.640808</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3.36908</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.490814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.729706</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.739655</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.490082</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.764008</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.216431</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.137299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.823669</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.171326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.573914</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2.524933</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.229614</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.529724</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.397125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.981293</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.300873</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.323761</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.511414</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2.654968</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>3.397461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.331633</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.8783493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.899094</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.234955</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.159145</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.474854</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>3.093445</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.49601</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.6140060000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3.257957</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>3.24305</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.108185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.635696</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.784454</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.595932</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.49707</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.348846</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.370239</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.551086</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.24025</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.089813</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.587814</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.366821</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.078369</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.924408</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.33078</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.150772</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.476349</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.27507</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3.00209</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>3.61554</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>4.702454</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>3.305237</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.975555</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8361511</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2.514893</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.182892</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.671661</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3.083984</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.551605</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.250092</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>3.14679</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.170898</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.985962</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9413757</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.367218</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3.326508</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.716766</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>3.211517</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.021576</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.9913635</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.039276</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>3.028625</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.228271</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.814606</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.5378113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3415,1069 +7893,1573 @@
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>ɛ vs. æ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>ɪ vs. iː</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>ʊ vs. uː</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>ʌ vs. ɑ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6785714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -9215,7 +14197,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/VR Karting/Results/8399.xlsx
+++ b/VR Karting/Results/8399.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13640" yWindow="2020" windowWidth="20920" windowHeight="17440" tabRatio="600" firstSheet="1" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13640" yWindow="1360" windowWidth="16940" windowHeight="18080" tabRatio="600" firstSheet="9" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,9 +18,13 @@
     <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Contrast Accuracies" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Contrast Accuracies" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7762,7 +7766,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -7859,7 +7863,3155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.171558</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.731117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.860863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.47139</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.96817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.626923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.287178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.941574</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.6523819</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.946198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.645264</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.539932</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9679642000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.462585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.233978</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.62793</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.274033</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.345276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.621994</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.307297</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.8851471</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.302277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.856964</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.476639</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.943222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.624207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.240143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.767242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.6331482</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2.148392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2.838516</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2.584335</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.418182</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.69928</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.025635</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.6431274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.003662</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.158997</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.43454</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8907166</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.609985</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.833832</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.386597</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.499359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.544617</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.115448</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.6298523</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.03656</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.15329</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.269379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.616669</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.6341248</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.212006</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.338348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.8049622</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.287033</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.6760998</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.027611</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.183441</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3.086739</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.885376</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.931961</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9320831000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.8930893</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.495552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9098587</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.229401</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.584602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.197769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.405968</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.309372</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.9598694</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.601364</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.414719</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.179047</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.275116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.143829</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.6857758</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3.879166</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.6336365</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.656937</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.433319</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.702164</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8362885</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.9521332</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.911743</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.071457</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.68277</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.120819</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.383728</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.684601</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2.197479</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.115326</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.730621</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.973328</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6792603</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6955872</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.546082</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.511841</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.044495</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>3.426666</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.325775</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.428528</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.820007</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.414795</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8170471</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.7169189</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.647522</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.158997</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.791901</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>3.500885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.11673</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9542235999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.575851</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.925278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.938034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.992088</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.924149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.402321</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.711388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.572861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.9441832999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.986145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.020798</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.341949</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.208023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.940033</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.524887</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.9021454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.192139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.788605</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.26474</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.253372</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.272781</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.378128</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.237259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3.026459</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.6685791</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.275391</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.132141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.491364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.391846</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2.162567</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.8515625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.036194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.653442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.9828796</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.3432312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.8834229</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.7854004</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.952301</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.106995</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.785889</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.530731</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.9375916</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.648895</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2.231995</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.03244</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.686432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2.597534</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.9879456</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.503784</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.8487854</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.990448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>3.375641</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.839722</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.913605</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.933739</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.7405929999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.680199</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.456055</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2.28154</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.122513</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.6552582</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.321854</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.8235015999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.315277</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.385147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.22496</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.8740692</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.437653</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.409286</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.6047515999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.273346</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.952789</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.378998</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.320724</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.7260742</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.183563</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.230988</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.247559</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.9842224000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.6461792</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.222168</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.220612</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.939667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.9803467</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.005005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.245758</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.093292</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.9587097</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.141693</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.7015686</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>3.369843</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.148895</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.8070984</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.409637</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6970215</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.420685</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.385376</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.802887</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.958008</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.622467</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.7813416</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.756989</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.8547058</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.5519104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6625061</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.8382874</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.251404</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.720551</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8545532</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>4.464111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7898,6 +11050,16 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -7920,6 +11082,12 @@
       <c r="F2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -7942,6 +11110,12 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -7964,6 +11138,12 @@
       <c r="F4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -7986,6 +11166,12 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -8008,6 +11194,12 @@
       <c r="F6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -8030,6 +11222,12 @@
       <c r="F7" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -8052,6 +11250,12 @@
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -8074,6 +11278,12 @@
       <c r="F9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -8096,6 +11306,12 @@
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -8118,6 +11334,12 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -8140,6 +11362,12 @@
       <c r="F12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -8162,6 +11390,12 @@
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -8184,6 +11418,12 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -8206,6 +11446,12 @@
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -8228,6 +11474,12 @@
       <c r="F16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -8250,6 +11502,12 @@
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -8272,6 +11530,12 @@
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -8294,6 +11558,12 @@
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -8316,6 +11586,12 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -8338,6 +11614,12 @@
       <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -8360,6 +11642,12 @@
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -8382,6 +11670,12 @@
       <c r="F23" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -8404,6 +11698,12 @@
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -8426,6 +11726,12 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -8448,6 +11754,12 @@
       <c r="F26" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -8470,6 +11782,12 @@
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -8492,6 +11810,12 @@
       <c r="F28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -8514,6 +11838,12 @@
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -8536,6 +11866,12 @@
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -8558,6 +11894,12 @@
       <c r="F31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -8580,6 +11922,12 @@
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -8602,6 +11950,12 @@
       <c r="F33" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -8624,6 +11978,12 @@
       <c r="F34" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -8646,6 +12006,12 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -8668,6 +12034,12 @@
       <c r="F36" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -8690,6 +12062,12 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -8712,6 +12090,12 @@
       <c r="F38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -8734,6 +12118,12 @@
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -8756,6 +12146,12 @@
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -8778,6 +12174,12 @@
       <c r="F41" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -8800,6 +12202,12 @@
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -8822,6 +12230,12 @@
       <c r="F43" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -8844,6 +12258,12 @@
       <c r="F44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -8866,6 +12286,12 @@
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -8888,6 +12314,12 @@
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -8910,6 +12342,12 @@
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -8932,6 +12370,12 @@
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -8954,6 +12398,12 @@
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -8976,6 +12426,12 @@
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -8998,6 +12454,12 @@
       <c r="F51" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -9020,6 +12482,12 @@
       <c r="F52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -9042,6 +12510,12 @@
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -9064,6 +12538,12 @@
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -9086,6 +12566,12 @@
       <c r="F55" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -9108,6 +12594,12 @@
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -9128,6 +12620,12 @@
         <v>1</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9136,7 +12634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9328,13 +12826,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9373,6 +12871,16 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9395,6 +12903,12 @@
       <c r="F2" t="n">
         <v>0.75</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9417,6 +12931,12 @@
       <c r="F3" t="n">
         <v>0.75</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9439,6 +12959,12 @@
       <c r="F4" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9460,6 +12986,12 @@
       </c>
       <c r="F5" t="n">
         <v>0.6785714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
